--- a/datasets/tweets_distribution.xlsx
+++ b/datasets/tweets_distribution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipealvesdias/IdeaProjects/mobility-analysis/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EAB8635A-C2CC-C444-BF7F-2AFB78C8AE5D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCD3E73-B92B-C34B-8771-8EE0D816AAE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="0" windowWidth="28240" windowHeight="17560" xr2:uid="{6A98D3D8-65E5-AA4C-AEA7-014C39F60F14}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Account</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Urban Event</t>
-  </si>
-  <si>
-    <t>temposaopaulo</t>
   </si>
   <si>
     <t>saopaulo_agora</t>
@@ -164,7 +161,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -183,7 +180,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-BR"/>
+              <a:rPr lang="pt-BR" sz="2400"/>
               <a:t>Distribuição das classes dos eventos de exceção do Corpus Twitter</a:t>
             </a:r>
           </a:p>
@@ -202,7 +199,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -263,46 +260,43 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$A$2:$A$14</c:f>
+              <c:f>Planilha1!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>temposaopaulo</c:v>
+                  <c:v>saopaulo_agora</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>saopaulo_agora</c:v>
+                  <c:v>governosp</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>governosp</c:v>
+                  <c:v>BombeirosPMESP</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BombeirosPMESP</c:v>
+                  <c:v>CPTM_oficial</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>CPTM_oficial</c:v>
+                  <c:v>PMESP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>PMESP</c:v>
+                  <c:v>metrosp_oficial</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>metrosp_oficial</c:v>
+                  <c:v>Policia_Civil</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Policia_Civil</c:v>
+                  <c:v>TurismoSaoPaulo</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>TurismoSaoPaulo</c:v>
+                  <c:v>smtsp_</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>smtsp_</c:v>
+                  <c:v>SPCEDEC</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>SPCEDEC</c:v>
+                  <c:v>sptrans_</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>sptrans_</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>CETSP_</c:v>
                 </c:pt>
               </c:strCache>
@@ -310,21 +304,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$2:$B$14</c:f>
+              <c:f>Planilha1!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>484</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -342,15 +336,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
@@ -377,32 +368,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -417,46 +388,43 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$A$2:$A$14</c:f>
+              <c:f>Planilha1!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>temposaopaulo</c:v>
+                  <c:v>saopaulo_agora</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>saopaulo_agora</c:v>
+                  <c:v>governosp</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>governosp</c:v>
+                  <c:v>BombeirosPMESP</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BombeirosPMESP</c:v>
+                  <c:v>CPTM_oficial</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>CPTM_oficial</c:v>
+                  <c:v>PMESP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>PMESP</c:v>
+                  <c:v>metrosp_oficial</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>metrosp_oficial</c:v>
+                  <c:v>Policia_Civil</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Policia_Civil</c:v>
+                  <c:v>TurismoSaoPaulo</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>TurismoSaoPaulo</c:v>
+                  <c:v>smtsp_</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>smtsp_</c:v>
+                  <c:v>SPCEDEC</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>SPCEDEC</c:v>
+                  <c:v>sptrans_</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>sptrans_</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>CETSP_</c:v>
                 </c:pt>
               </c:strCache>
@@ -464,47 +432,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$C$2:$C$14</c:f>
+              <c:f>Planilha1!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3200</c:v>
+                  <c:v>834</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>834</c:v>
+                  <c:v>6011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6011</c:v>
+                  <c:v>2948</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2948</c:v>
+                  <c:v>6302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6302</c:v>
+                  <c:v>4278</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4278</c:v>
+                  <c:v>8613</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8613</c:v>
+                  <c:v>3417</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3417</c:v>
+                  <c:v>3359</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3359</c:v>
+                  <c:v>1109</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1109</c:v>
+                  <c:v>1222</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1222</c:v>
+                  <c:v>9304</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9304</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>3560</c:v>
                 </c:pt>
               </c:numCache>
@@ -548,46 +513,43 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$A$2:$A$14</c:f>
+              <c:f>Planilha1!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>temposaopaulo</c:v>
+                  <c:v>saopaulo_agora</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>saopaulo_agora</c:v>
+                  <c:v>governosp</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>governosp</c:v>
+                  <c:v>BombeirosPMESP</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BombeirosPMESP</c:v>
+                  <c:v>CPTM_oficial</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>CPTM_oficial</c:v>
+                  <c:v>PMESP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>PMESP</c:v>
+                  <c:v>metrosp_oficial</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>metrosp_oficial</c:v>
+                  <c:v>Policia_Civil</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Policia_Civil</c:v>
+                  <c:v>TurismoSaoPaulo</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>TurismoSaoPaulo</c:v>
+                  <c:v>smtsp_</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>smtsp_</c:v>
+                  <c:v>SPCEDEC</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>SPCEDEC</c:v>
+                  <c:v>sptrans_</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>sptrans_</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>CETSP_</c:v>
                 </c:pt>
               </c:strCache>
@@ -595,21 +557,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$D$2:$D$14</c:f>
+              <c:f>Planilha1!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2599</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -627,15 +589,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -702,46 +661,43 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$A$2:$A$14</c:f>
+              <c:f>Planilha1!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>temposaopaulo</c:v>
+                  <c:v>saopaulo_agora</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>saopaulo_agora</c:v>
+                  <c:v>governosp</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>governosp</c:v>
+                  <c:v>BombeirosPMESP</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BombeirosPMESP</c:v>
+                  <c:v>CPTM_oficial</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>CPTM_oficial</c:v>
+                  <c:v>PMESP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>PMESP</c:v>
+                  <c:v>metrosp_oficial</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>metrosp_oficial</c:v>
+                  <c:v>Policia_Civil</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Policia_Civil</c:v>
+                  <c:v>TurismoSaoPaulo</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>TurismoSaoPaulo</c:v>
+                  <c:v>smtsp_</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>smtsp_</c:v>
+                  <c:v>SPCEDEC</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>SPCEDEC</c:v>
+                  <c:v>sptrans_</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>sptrans_</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>CETSP_</c:v>
                 </c:pt>
               </c:strCache>
@@ -749,15 +705,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$E$2:$E$14</c:f>
+              <c:f>Planilha1!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -766,30 +722,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>971</c:v>
                 </c:pt>
               </c:numCache>
@@ -833,46 +786,43 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$A$2:$A$14</c:f>
+              <c:f>Planilha1!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>temposaopaulo</c:v>
+                  <c:v>saopaulo_agora</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>saopaulo_agora</c:v>
+                  <c:v>governosp</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>governosp</c:v>
+                  <c:v>BombeirosPMESP</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BombeirosPMESP</c:v>
+                  <c:v>CPTM_oficial</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>CPTM_oficial</c:v>
+                  <c:v>PMESP</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>PMESP</c:v>
+                  <c:v>metrosp_oficial</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>metrosp_oficial</c:v>
+                  <c:v>Policia_Civil</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Policia_Civil</c:v>
+                  <c:v>TurismoSaoPaulo</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>TurismoSaoPaulo</c:v>
+                  <c:v>smtsp_</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>smtsp_</c:v>
+                  <c:v>SPCEDEC</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>SPCEDEC</c:v>
+                  <c:v>sptrans_</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>sptrans_</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>CETSP_</c:v>
                 </c:pt>
               </c:strCache>
@@ -880,10 +830,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$F$2:$F$14</c:f>
+              <c:f>Planilha1!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -897,30 +847,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>102</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>403</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>403</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>1116</c:v>
                 </c:pt>
               </c:numCache>
@@ -974,7 +921,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -1032,7 +979,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -1073,7 +1020,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -1684,7 +1631,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2010,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6571128E-6656-6E48-A024-F16DDA5DFA5B}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2046,16 +1993,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="C2" s="1">
-        <v>3200</v>
+        <v>834</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>2599</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -2066,16 +2013,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>834</v>
+        <v>6011</v>
       </c>
       <c r="D3" s="1">
-        <v>2599</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -2086,13 +2033,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>3666</v>
       </c>
       <c r="C4" s="1">
-        <v>6011</v>
+        <v>2948</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2106,13 +2053,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>3666</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>2948</v>
+        <v>6302</v>
       </c>
       <c r="D5" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2129,16 +2076,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>6302</v>
+        <v>4278</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2149,16 +2096,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>4278</v>
+        <v>8613</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2169,16 +2116,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>8613</v>
+        <v>3417</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2189,13 +2136,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>3417</v>
+        <v>3359</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -2203,101 +2150,81 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>3359</v>
+        <v>1109</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1">
-        <v>1109</v>
+        <v>1222</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>1222</v>
+        <v>9304</v>
       </c>
       <c r="D12" s="1">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1">
-        <v>9304</v>
+        <v>3560</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1">
-        <v>249</v>
+        <v>971</v>
       </c>
       <c r="F13" s="1">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1">
-        <v>48</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3560</v>
-      </c>
-      <c r="D14" s="1">
-        <v>40</v>
-      </c>
-      <c r="E14" s="1">
-        <v>971</v>
-      </c>
-      <c r="F14" s="1">
         <v>1116</v>
       </c>
     </row>

--- a/datasets/tweets_distribution.xlsx
+++ b/datasets/tweets_distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipealvesdias/IdeaProjects/mobility-analysis/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCD3E73-B92B-C34B-8771-8EE0D816AAE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26A2B41-19B8-7945-A573-97D9CEF79646}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="0" windowWidth="28240" windowHeight="17560" xr2:uid="{6A98D3D8-65E5-AA4C-AEA7-014C39F60F14}"/>
   </bookViews>
@@ -154,74 +154,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="2400"/>
-              <a:t>Distribuição das classes dos eventos de exceção do Corpus Twitter</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -921,7 +854,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -979,7 +912,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -997,6 +930,49 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1005,36 +981,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1070,7 +1016,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1050"/>
       </a:pPr>
       <a:endParaRPr lang="pt-BR"/>
     </a:p>
@@ -1960,7 +1906,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
